--- a/config_5.11/activity_ty_task_config.xlsx
+++ b/config_5.11/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="134">
   <si>
     <t>index|索引</t>
   </si>
@@ -515,6 +515,9 @@
     <t>在龙王贡品中，获得1次奖赏</t>
   </si>
   <si>
+    <t>5000,</t>
+  </si>
+  <si>
     <t>在龙王贡品中，获得3次奖赏</t>
   </si>
   <si>
@@ -547,9 +550,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -598,13 +601,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -613,6 +609,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -629,23 +707,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,8 +721,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,66 +732,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +782,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,61 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,31 +902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,43 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,17 +967,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,11 +1006,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,8 +1048,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,40 +1064,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,133 +1082,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1915,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3193,8 +3196,8 @@
       <c r="F42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="3">
-        <v>5000</v>
+      <c r="G42" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>61</v>
@@ -3211,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3219,8 +3222,8 @@
       <c r="F43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="3">
-        <v>10000</v>
+      <c r="G43" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>61</v>
@@ -3237,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -3245,8 +3248,8 @@
       <c r="F44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="3">
-        <v>30000</v>
+      <c r="G44" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>61</v>
@@ -3271,8 +3274,8 @@
       <c r="F45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="3">
-        <v>10000</v>
+      <c r="G45" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>61</v>
@@ -3289,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -3297,8 +3300,8 @@
       <c r="F46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="3">
-        <v>10000</v>
+      <c r="G46" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>61</v>
@@ -3323,8 +3326,8 @@
       <c r="F47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="3">
-        <v>30000</v>
+      <c r="G47" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>61</v>
@@ -3349,8 +3352,8 @@
       <c r="F48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="3">
-        <v>20000</v>
+      <c r="G48" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>70</v>
@@ -3367,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3375,8 +3378,8 @@
       <c r="F49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="3">
-        <v>20000</v>
+      <c r="G49" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>70</v>
@@ -3401,8 +3404,8 @@
       <c r="F50" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="3">
-        <v>20000</v>
+      <c r="G50" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>70</v>
@@ -3427,8 +3430,8 @@
       <c r="F51" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="3">
-        <v>30000</v>
+      <c r="G51" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>70</v>
@@ -3453,8 +3456,8 @@
       <c r="F52" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="3">
-        <v>20000</v>
+      <c r="G52" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>70</v>
@@ -3479,8 +3482,8 @@
       <c r="F53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="3">
-        <v>30000</v>
+      <c r="G53" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>70</v>
@@ -3497,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -3505,8 +3508,8 @@
       <c r="F54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="3">
-        <v>5000</v>
+      <c r="G54" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>70</v>
@@ -3523,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -3531,8 +3534,8 @@
       <c r="F55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="3">
-        <v>20000</v>
+      <c r="G55" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>70</v>
@@ -3557,8 +3560,8 @@
       <c r="F56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="3">
-        <v>10000</v>
+      <c r="G56" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>70</v>
@@ -3575,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -3583,8 +3586,8 @@
       <c r="F57" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="3">
-        <v>20000</v>
+      <c r="G57" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>70</v>
@@ -3609,8 +3612,8 @@
       <c r="F58" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="3">
-        <v>20000</v>
+      <c r="G58" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>70</v>
@@ -3627,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -3635,8 +3638,8 @@
       <c r="F59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="3">
-        <v>20000</v>
+      <c r="G59" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>70</v>
@@ -3653,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -3661,8 +3664,8 @@
       <c r="F60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="3">
-        <v>30000</v>
+      <c r="G60" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>70</v>
@@ -3687,8 +3690,8 @@
       <c r="F61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="3">
-        <v>20000</v>
+      <c r="G61" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>70</v>
@@ -3713,8 +3716,8 @@
       <c r="F62" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="3">
-        <v>10000</v>
+      <c r="G62" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>70</v>
@@ -3739,8 +3742,8 @@
       <c r="F63" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="3">
-        <v>20000</v>
+      <c r="G63" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>70</v>
@@ -3765,8 +3768,8 @@
       <c r="F64" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G64" s="3">
-        <v>20000</v>
+      <c r="G64" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>70</v>
@@ -3791,8 +3794,8 @@
       <c r="F65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="3">
-        <v>30000</v>
+      <c r="G65" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>70</v>

--- a/config_5.11/activity_ty_task_config.xlsx
+++ b/config_5.11/activity_ty_task_config.xlsx
@@ -550,9 +550,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -601,7 +601,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,29 +684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,44 +692,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,9 +714,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,19 +729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -782,7 +782,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +824,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,139 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,17 +967,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,11 +1015,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,15 +1047,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1064,16 +1055,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,133 +1082,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1918,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3181,8 +3181,8 @@
       <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>1000563</v>
+      <c r="B42" s="1">
+        <v>1000583</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3207,8 +3207,8 @@
       <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
-        <v>1000564</v>
+      <c r="B43" s="1">
+        <v>1000584</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
@@ -3233,8 +3233,8 @@
       <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>1000565</v>
+      <c r="B44" s="1">
+        <v>1000585</v>
       </c>
       <c r="C44" s="3">
         <v>8</v>
@@ -3259,8 +3259,8 @@
       <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
-        <v>1000566</v>
+      <c r="B45" s="1">
+        <v>1000586</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
@@ -3285,8 +3285,8 @@
       <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
-        <v>1000567</v>
+      <c r="B46" s="1">
+        <v>1000587</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -3311,8 +3311,8 @@
       <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
-        <v>1000568</v>
+      <c r="B47" s="1">
+        <v>1000588</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -3337,8 +3337,8 @@
       <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
-        <v>1000569</v>
+      <c r="B48" s="1">
+        <v>1000589</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -3363,8 +3363,8 @@
       <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
-        <v>1000570</v>
+      <c r="B49" s="1">
+        <v>1000590</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -3389,8 +3389,8 @@
       <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
-        <v>1000571</v>
+      <c r="B50" s="1">
+        <v>1000591</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -3415,8 +3415,8 @@
       <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>1000572</v>
+      <c r="B51" s="1">
+        <v>1000592</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
@@ -3441,8 +3441,8 @@
       <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
-        <v>1000573</v>
+      <c r="B52" s="1">
+        <v>1000593</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -3467,8 +3467,8 @@
       <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
-        <v>1000574</v>
+      <c r="B53" s="1">
+        <v>1000594</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -3493,8 +3493,8 @@
       <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
-        <v>1000575</v>
+      <c r="B54" s="1">
+        <v>1000595</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -3519,8 +3519,8 @@
       <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
-        <v>1000576</v>
+      <c r="B55" s="1">
+        <v>1000596</v>
       </c>
       <c r="C55" s="3">
         <v>5</v>
@@ -3545,8 +3545,8 @@
       <c r="A56" s="9">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
-        <v>1000577</v>
+      <c r="B56" s="1">
+        <v>1000597</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -3571,8 +3571,8 @@
       <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
-        <v>1000578</v>
+      <c r="B57" s="1">
+        <v>1000598</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -3597,8 +3597,8 @@
       <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
-        <v>1000579</v>
+      <c r="B58" s="1">
+        <v>1000599</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -3623,8 +3623,8 @@
       <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
-        <v>1000580</v>
+      <c r="B59" s="1">
+        <v>1000600</v>
       </c>
       <c r="C59" s="3">
         <v>2</v>
@@ -3649,8 +3649,8 @@
       <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
-        <v>1000581</v>
+      <c r="B60" s="1">
+        <v>1000601</v>
       </c>
       <c r="C60" s="3">
         <v>4</v>
@@ -3675,8 +3675,8 @@
       <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
-        <v>1000582</v>
+      <c r="B61" s="1">
+        <v>1000602</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -3701,8 +3701,8 @@
       <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
-        <v>1000583</v>
+      <c r="B62" s="1">
+        <v>1000603</v>
       </c>
       <c r="C62" s="3">
         <v>300000</v>
@@ -3727,8 +3727,8 @@
       <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
-        <v>1000584</v>
+      <c r="B63" s="1">
+        <v>1000604</v>
       </c>
       <c r="C63" s="3">
         <v>600000</v>
@@ -3753,8 +3753,8 @@
       <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
-        <v>1000585</v>
+      <c r="B64" s="1">
+        <v>1000605</v>
       </c>
       <c r="C64" s="3">
         <v>3</v>
@@ -3779,8 +3779,8 @@
       <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
-        <v>1000586</v>
+      <c r="B65" s="1">
+        <v>1000606</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>

--- a/config_5.11/activity_ty_task_config.xlsx
+++ b/config_5.11/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="137">
   <si>
     <t>index|索引</t>
   </si>
@@ -119,6 +119,12 @@
     <t>感恩回馈--v4--冲金鸡</t>
   </si>
   <si>
+    <t>act_hlfl_byam</t>
+  </si>
+  <si>
+    <t>奖励金币_byam</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
       </rPr>
       <t>6,37,38,39,40</t>
     </r>
+  </si>
+  <si>
+    <t>65,66,67,68,69,70,71,72,73</t>
   </si>
   <si>
     <t>id|</t>
@@ -550,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -600,18 +609,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,38 +650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,46 +664,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +686,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +705,44 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -782,13 +791,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,25 +857,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,55 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,31 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,47 +979,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,13 +1015,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,16 +1038,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,133 +1091,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1583,13 +1592,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1729,6 +1738,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1739,13 +1765,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1759,25 +1785,25 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1798,7 +1824,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1819,7 +1845,7 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1827,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -1840,7 +1866,7 @@
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1848,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="21">
         <v>0</v>
@@ -1861,7 +1887,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1869,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -1882,7 +1908,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1890,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="21">
         <v>0</v>
@@ -1903,7 +1929,27 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1916,10 +1962,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1948,61 +1994,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2013,22 +2059,22 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
@@ -2046,22 +2092,22 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7"/>
@@ -2081,22 +2127,22 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -2114,22 +2160,22 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
@@ -2147,22 +2193,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -2180,22 +2226,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -2214,22 +2260,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2241,22 +2287,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2268,22 +2314,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2298,19 +2344,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2322,22 +2368,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2349,22 +2395,22 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2376,22 +2422,22 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2403,22 +2449,22 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2430,22 +2476,22 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2457,22 +2503,22 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2484,22 +2530,22 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2511,22 +2557,22 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2538,22 +2584,22 @@
         <v>1000581</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2568,19 +2614,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2595,22 +2641,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:9">
@@ -2624,22 +2670,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:9">
@@ -2653,22 +2699,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
@@ -2682,22 +2728,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
@@ -2711,22 +2757,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M26" s="10"/>
       <c r="O26" s="10"/>
@@ -2742,22 +2788,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M27" s="10"/>
       <c r="O27" s="10"/>
@@ -2773,22 +2819,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2806,22 +2852,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
@@ -2835,22 +2881,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
@@ -2864,22 +2910,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
@@ -2893,22 +2939,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
@@ -2922,22 +2968,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -2951,22 +2997,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
@@ -2980,22 +3026,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G35" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="M35" s="10"/>
       <c r="O35" s="10"/>
@@ -3011,22 +3057,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M36" s="10"/>
       <c r="O36" s="10"/>
@@ -3042,22 +3088,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -3072,22 +3118,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
@@ -3101,22 +3147,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
@@ -3130,22 +3176,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
@@ -3159,22 +3205,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3188,19 +3234,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3214,19 +3260,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3240,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3266,19 +3312,19 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3292,19 +3338,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3318,19 +3364,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3344,19 +3390,19 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3370,19 +3416,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3396,19 +3442,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3422,19 +3468,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3448,19 +3494,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3474,19 +3520,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3500,19 +3546,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3526,19 +3572,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3552,19 +3598,19 @@
         <v>1</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3578,19 +3624,19 @@
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3604,19 +3650,19 @@
         <v>1</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3630,19 +3676,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3656,19 +3702,19 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3682,19 +3728,19 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3708,19 +3754,19 @@
         <v>300000</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3734,19 +3780,19 @@
         <v>600000</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3760,19 +3806,19 @@
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3786,19 +3832,253 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1000607</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1000608</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1000609</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1000610</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1000611</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1000612</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1000613</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1000614</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>70</v>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1000615</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.11/activity_ty_task_config.xlsx
+++ b/config_5.11/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -609,8 +609,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -625,14 +692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -641,44 +700,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,27 +723,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,23 +739,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +791,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +875,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,49 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,43 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,8 +979,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,30 +1039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1068,8 +1068,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,10 +1079,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,133 +1091,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1594,7 +1594,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1964,8 +1964,8 @@
   <sheetPr/>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3852,7 +3852,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>1000607</v>
+        <v>1000586</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -3878,7 +3878,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>1000608</v>
+        <v>1000587</v>
       </c>
       <c r="C67" s="3">
         <v>5</v>
@@ -3904,7 +3904,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>1000609</v>
+        <v>1000588</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>1000610</v>
+        <v>1000589</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>1000611</v>
+        <v>1000590</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>1000612</v>
+        <v>1000591</v>
       </c>
       <c r="C71" s="3">
         <v>2</v>
@@ -4008,7 +4008,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>1000613</v>
+        <v>1000592</v>
       </c>
       <c r="C72" s="3">
         <v>4</v>
@@ -4034,7 +4034,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>1000614</v>
+        <v>1000593</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -4060,7 +4060,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>1000615</v>
+        <v>1000594</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>

--- a/config_5.11/activity_ty_task_config.xlsx
+++ b/config_5.11/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="133">
   <si>
     <t>index|索引</t>
   </si>
@@ -77,19 +77,19 @@
     </r>
   </si>
   <si>
-    <t>act_xyxfl</t>
-  </si>
-  <si>
-    <t>wyfl_bg_1</t>
-  </si>
-  <si>
-    <t>免费金币</t>
-  </si>
-  <si>
-    <t>act_xyxfl_cjj</t>
-  </si>
-  <si>
-    <t>免费金币_cjj</t>
+    <t>act_hlfl</t>
+  </si>
+  <si>
+    <t>hlfl_bg_1</t>
+  </si>
+  <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>act_hlfl_cjj</t>
+  </si>
+  <si>
+    <t>奖励金币_cjj</t>
   </si>
   <si>
     <t>act_lgfl_normal</t>
@@ -140,10 +140,10 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <t>41,42,43,44,45,46,47,48,49,50,51,52</t>
+  </si>
+  <si>
+    <t>53,54,55,56,57,58,59,60,61,62,63,64</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -511,6 +511,36 @@
   <si>
     <t>"178万-600万","40",</t>
   </si>
+  <si>
+    <t>在龙王贡品中，获得1次奖赏</t>
+  </si>
+  <si>
+    <t>在龙王贡品中，获得3次奖赏</t>
+  </si>
+  <si>
+    <t>在龙王贡品中，获得8次奖赏</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏中累计使用5次双倍奖励</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除2次唐僧</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+1</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+5</t>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除2次孙悟空</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出2个英雄</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出4个英雄</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +552,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,13 +574,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -562,8 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -596,11 +619,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,7 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -628,7 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,26 +711,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,51 +728,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,12 +757,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -775,7 +785,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,19 +839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,19 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,31 +869,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,61 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,13 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,11 +964,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,17 +998,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1012,6 +1014,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,46 +1061,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,37 +1079,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,99 +1115,102 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,48 +1225,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1598,7 +1583,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1614,62 +1599,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>2</v>
       </c>
     </row>
@@ -1677,16 +1662,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1694,16 +1679,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>4</v>
       </c>
     </row>
@@ -1711,16 +1696,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1728,16 +1713,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>6</v>
       </c>
     </row>
@@ -1754,7 +1739,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1769,152 +1754,152 @@
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:7">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="21" t="s">
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21" t="s">
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1930,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2007,13 +1992,13 @@
       <c r="P1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2045,7 +2030,7 @@
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="14"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -2081,7 +2066,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="13"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
@@ -2114,7 +2099,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="13"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
@@ -2147,7 +2132,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="13"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
@@ -2180,7 +2165,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="13"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
@@ -2213,7 +2198,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -2919,7 +2904,7 @@
       <c r="H32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2948,7 +2933,7 @@
       <c r="H33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2977,7 +2962,7 @@
       <c r="H34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3006,7 +2991,7 @@
       <c r="H35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="14" t="s">
         <v>114</v>
       </c>
       <c r="M35" s="10"/>
@@ -3037,7 +3022,7 @@
       <c r="H36" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="14" t="s">
         <v>114</v>
       </c>
       <c r="M36" s="10"/>
@@ -3068,7 +3053,7 @@
       <c r="H37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="14" t="s">
         <v>114</v>
       </c>
       <c r="M37" s="10"/>
@@ -3098,7 +3083,7 @@
       <c r="H38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3127,7 +3112,7 @@
       <c r="H39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3156,7 +3141,7 @@
       <c r="H40" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3185,66 +3170,633 @@
       <c r="H41" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="12"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="12"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1000563</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1000564</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1000565</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1000566</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1000567</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1000568</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1000569</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1000570</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1000571</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1000572</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1000573</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1000574</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1000575</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1000576</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1000577</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1000578</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1000579</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1000580</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1000581</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1000582</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1000583</v>
+      </c>
+      <c r="C62" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1000584</v>
+      </c>
+      <c r="C63" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1000585</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1000586</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
